--- a/水泥.excel/1103/1103(102.1~105.12)EPM.xlsx
+++ b/水泥.excel/1103/1103(102.1~105.12)EPM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>營業收入淨額_x</t>
   </si>
@@ -163,283 +163,7 @@
     <t>本月</t>
   </si>
   <si>
-    <t>288,455</t>
-  </si>
-  <si>
-    <t>166,638</t>
-  </si>
-  <si>
-    <t>286,007</t>
-  </si>
-  <si>
-    <t>365,292</t>
-  </si>
-  <si>
-    <t>382,601</t>
-  </si>
-  <si>
-    <t>302,995</t>
-  </si>
-  <si>
-    <t>294,781</t>
-  </si>
-  <si>
-    <t>336,088</t>
-  </si>
-  <si>
-    <t>314,563</t>
-  </si>
-  <si>
-    <t>429,783</t>
-  </si>
-  <si>
-    <t>509,527</t>
-  </si>
-  <si>
-    <t>591,641</t>
-  </si>
-  <si>
-    <t>446,206</t>
-  </si>
-  <si>
-    <t>168,548</t>
-  </si>
-  <si>
-    <t>404,642</t>
-  </si>
-  <si>
-    <t>385,738</t>
-  </si>
-  <si>
-    <t>281,325</t>
-  </si>
-  <si>
-    <t>222,444</t>
-  </si>
-  <si>
-    <t>246,735</t>
-  </si>
-  <si>
-    <t>325,227</t>
-  </si>
-  <si>
-    <t>337,047</t>
-  </si>
-  <si>
-    <t>380,730</t>
-  </si>
-  <si>
-    <t>389,030</t>
-  </si>
-  <si>
-    <t>350,583</t>
-  </si>
-  <si>
-    <t>310,280</t>
-  </si>
-  <si>
-    <t>160,324</t>
-  </si>
-  <si>
-    <t>200,719</t>
-  </si>
-  <si>
-    <t>273,126</t>
-  </si>
-  <si>
-    <t>320,563</t>
-  </si>
-  <si>
-    <t>143,719</t>
-  </si>
-  <si>
-    <t>175,596</t>
-  </si>
-  <si>
-    <t>184,087</t>
-  </si>
-  <si>
-    <t>189,109</t>
-  </si>
-  <si>
-    <t>321,446</t>
-  </si>
-  <si>
-    <t>297,423</t>
-  </si>
-  <si>
-    <t>250,322</t>
-  </si>
-  <si>
-    <t>197,328</t>
-  </si>
-  <si>
-    <t>143,549</t>
-  </si>
-  <si>
-    <t>200,449</t>
-  </si>
-  <si>
-    <t>200,905</t>
-  </si>
-  <si>
-    <t>342,029</t>
-  </si>
-  <si>
-    <t>277,433</t>
-  </si>
-  <si>
-    <t>268,801</t>
-  </si>
-  <si>
-    <t>196,746</t>
-  </si>
-  <si>
-    <t>277,340</t>
-  </si>
-  <si>
-    <t>299,070</t>
-  </si>
-  <si>
-    <t>353,438</t>
-  </si>
-  <si>
-    <t>382,981</t>
-  </si>
-  <si>
     <t>本年累計</t>
-  </si>
-  <si>
-    <t>455,093</t>
-  </si>
-  <si>
-    <t>741,100</t>
-  </si>
-  <si>
-    <t>1,106,392</t>
-  </si>
-  <si>
-    <t>1,488,993</t>
-  </si>
-  <si>
-    <t>1,791,988</t>
-  </si>
-  <si>
-    <t>2,086,769</t>
-  </si>
-  <si>
-    <t>2,422,858</t>
-  </si>
-  <si>
-    <t>2,737,420</t>
-  </si>
-  <si>
-    <t>3,167,203</t>
-  </si>
-  <si>
-    <t>3,676,730</t>
-  </si>
-  <si>
-    <t>4,268,372</t>
-  </si>
-  <si>
-    <t>614,754</t>
-  </si>
-  <si>
-    <t>1,019,396</t>
-  </si>
-  <si>
-    <t>1,405,133</t>
-  </si>
-  <si>
-    <t>1,686,458</t>
-  </si>
-  <si>
-    <t>1,908,902</t>
-  </si>
-  <si>
-    <t>2,155,637</t>
-  </si>
-  <si>
-    <t>2,480,864</t>
-  </si>
-  <si>
-    <t>2,817,911</t>
-  </si>
-  <si>
-    <t>3,198,640</t>
-  </si>
-  <si>
-    <t>3,587,670</t>
-  </si>
-  <si>
-    <t>3,938,252</t>
-  </si>
-  <si>
-    <t>470,604</t>
-  </si>
-  <si>
-    <t>671,323</t>
-  </si>
-  <si>
-    <t>944,449</t>
-  </si>
-  <si>
-    <t>1,265,011</t>
-  </si>
-  <si>
-    <t>1,408,730</t>
-  </si>
-  <si>
-    <t>1,584,326</t>
-  </si>
-  <si>
-    <t>1,768,413</t>
-  </si>
-  <si>
-    <t>1,957,522</t>
-  </si>
-  <si>
-    <t>2,278,968</t>
-  </si>
-  <si>
-    <t>2,576,391</t>
-  </si>
-  <si>
-    <t>2,826,713</t>
-  </si>
-  <si>
-    <t>340,877</t>
-  </si>
-  <si>
-    <t>541,326</t>
-  </si>
-  <si>
-    <t>742,231</t>
-  </si>
-  <si>
-    <t>1,084,260</t>
-  </si>
-  <si>
-    <t>1,361,693</t>
-  </si>
-  <si>
-    <t>1,630,494</t>
-  </si>
-  <si>
-    <t>1,827,240</t>
-  </si>
-  <si>
-    <t>2,104,580</t>
-  </si>
-  <si>
-    <t>2,403,650</t>
-  </si>
-  <si>
-    <t>2,757,087</t>
-  </si>
-  <si>
-    <t>3,140,069</t>
   </si>
 </sst>
 </file>
@@ -946,298 +670,298 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>96</v>
+      <c r="B2" t="n">
+        <v>288455</v>
+      </c>
+      <c r="C2" t="n">
+        <v>166638</v>
+      </c>
+      <c r="D2" t="n">
+        <v>286007</v>
+      </c>
+      <c r="E2" t="n">
+        <v>365292</v>
+      </c>
+      <c r="F2" t="n">
+        <v>382601</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302995</v>
+      </c>
+      <c r="H2" t="n">
+        <v>294781</v>
+      </c>
+      <c r="I2" t="n">
+        <v>336088</v>
+      </c>
+      <c r="J2" t="n">
+        <v>314563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>429783</v>
+      </c>
+      <c r="L2" t="n">
+        <v>509527</v>
+      </c>
+      <c r="M2" t="n">
+        <v>591641</v>
+      </c>
+      <c r="N2" t="n">
+        <v>446206</v>
+      </c>
+      <c r="O2" t="n">
+        <v>168548</v>
+      </c>
+      <c r="P2" t="n">
+        <v>404642</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>385738</v>
+      </c>
+      <c r="R2" t="n">
+        <v>281325</v>
+      </c>
+      <c r="S2" t="n">
+        <v>222444</v>
+      </c>
+      <c r="T2" t="n">
+        <v>246735</v>
+      </c>
+      <c r="U2" t="n">
+        <v>325227</v>
+      </c>
+      <c r="V2" t="n">
+        <v>337047</v>
+      </c>
+      <c r="W2" t="n">
+        <v>380730</v>
+      </c>
+      <c r="X2" t="n">
+        <v>389030</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>350583</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>310280</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>160324</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>200719</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>273126</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>320563</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>143719</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>175596</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>184087</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>189109</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>321446</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>297423</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>250322</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>197328</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>143549</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>200449</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>200905</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>342029</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>277433</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>268801</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>196746</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>277340</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>299070</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>353438</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>382981</v>
       </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" t="s">
-        <v>115</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>141</v>
+      <c r="B3" t="n">
+        <v>288455</v>
+      </c>
+      <c r="C3" t="n">
+        <v>455093</v>
+      </c>
+      <c r="D3" t="n">
+        <v>741100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1106392</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1791988</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2086769</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2422858</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2737420</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3167203</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3676730</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4268372</v>
+      </c>
+      <c r="N3" t="n">
+        <v>446206</v>
+      </c>
+      <c r="O3" t="n">
+        <v>614754</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1019396</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1405133</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1686458</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1908902</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2155637</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2480864</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2817911</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3198640</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3587670</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3938252</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>310280</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>470604</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>671323</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>944449</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1265011</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1408730</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1584326</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1768413</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1957522</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2278968</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2576391</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2826713</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>197328</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>340877</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>541326</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>742231</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1084260</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1361693</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1630494</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1827240</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2104580</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2403650</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2757087</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3140069</v>
       </c>
     </row>
   </sheetData>
